--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -1444,22 +1444,62 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>19</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>

--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -1502,22 +1502,62 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>23/08/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>14</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>

--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -1560,22 +1560,62 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M20" t="n">
+        <v>14</v>
+      </c>
+      <c r="N20" t="n">
+        <v>21</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>

--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -1618,22 +1618,62 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M21" t="n">
+        <v>18</v>
+      </c>
+      <c r="N21" t="n">
+        <v>16</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>

--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -1676,22 +1676,62 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M22" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>

--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -1734,40 +1734,120 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nacional Potosi</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M23" t="n">
+        <v>12</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>

--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -1850,22 +1850,62 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Real Oruro</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M25" t="n">
+        <v>15</v>
+      </c>
+      <c r="N25" t="n">
+        <v>18</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>

--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -1908,22 +1908,62 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M26" t="n">
+        <v>17</v>
+      </c>
+      <c r="N26" t="n">
+        <v>20</v>
+      </c>
+      <c r="O26" t="n">
+        <v>9</v>
+      </c>
+      <c r="P26" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>

--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -1966,22 +1966,62 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>29/11/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M27" t="n">
+        <v>7</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>

--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -2024,40 +2024,120 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02/12/2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SA Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M28" t="n">
+        <v>21</v>
+      </c>
+      <c r="N28" t="n">
+        <v>18</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M29" t="n">
+        <v>13</v>
+      </c>
+      <c r="N29" t="n">
+        <v>16</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>

--- a/new-stats/club-gv-san-jose.xlsx
+++ b/new-stats/club-gv-san-jose.xlsx
@@ -2140,40 +2140,120 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M30" t="n">
+        <v>17</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M31" t="n">
+        <v>22</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>12</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
